--- a/Lab1/Lab01_ReviewReport.xlsx
+++ b/Lab1/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\An III\Sem2\Val. Sis. Soft\VSS\VSS\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858AA70D-6FFB-4900-A296-D8B462B4B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2C194-247F-41C6-945D-725602F2C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{E6C876BD-5C2C-4D55-9D61-170E3E247E8C}"/>
   </bookViews>
@@ -36,73 +36,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Requirements Phase Defects</t>
-  </si>
-  <si>
-    <t>Einfügen von Funktionen, die nicht funktionieren</t>
-  </si>
-  <si>
-    <t>Architectural Design Phase Defects</t>
-  </si>
-  <si>
-    <t>Sicherheitsschwachstellen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Inkonsistente Entwurfsmuster</t>
-  </si>
-  <si>
-    <t>Ineffiziente Ressourcennutzung</t>
-  </si>
-  <si>
-    <t>Schlechtes Layering</t>
-  </si>
-  <si>
-    <t>Mangelnde Erweiterbarkeit</t>
-  </si>
-  <si>
-    <t>Program Coding Phase Defects</t>
-  </si>
-  <si>
-    <t>Null-Zeiger-Ausnahmen</t>
-  </si>
-  <si>
-    <t>Array Out-of-Bounds-Fehler</t>
-  </si>
-  <si>
-    <t>Gleichzeitigkeitsprobleme</t>
-  </si>
-  <si>
-    <t>Schlecht strukturierter Code</t>
-  </si>
-  <si>
-    <t>Ineffiziente Algorithmen</t>
-  </si>
-  <si>
-    <t>Neue Manager, indem sie die Hauptanmeldeinformationen der App überprüfen                                                                                                                                                                                                           Die Liste war nach jedem Hinzufügen und erneutem Start der App leer                                                                                                                                                Die Spiele wurden nicht in der Datenbank abgebildet</t>
-  </si>
-  <si>
-    <t>Race Conditions, Deadlocks oder inkonsistente Zustände aufgrund  unsachgemäßer Synchronisierung von gleichzeitigen Threads oder Prozessen                                                                                  Schlecht strukturierter Code, der schwer zu verstehen, zu pflegen oder zu erweitern ist.                                                                                            Ineffiziente Algorithmen, Datenstrukturen oder Datenbankabfragen, die zu einer schlechten Leistung oder Skalierbarkeit der Anwendung führen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+  <si>
+    <t>Review Report</t>
+  </si>
+  <si>
+    <t>Document Title:</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
+    <t>Review Date:</t>
+  </si>
+  <si>
+    <t>Crt. No.</t>
+  </si>
+  <si>
+    <t>Checked Item</t>
+  </si>
+  <si>
+    <t>Comments/ Improvements</t>
+  </si>
+  <si>
+    <t>Die Anforderungen wurden entwickelt und verdeutlicht.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Die Funktionen wurden besser definiert mit mehrere Klärungen</t>
+  </si>
+  <si>
+    <t>Die Bedürfnisse der Nutzer wurden klargemacht und vervollständigt.</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>Kommentare wurden hinzugefügt, um besser die Funktionen zu klären.</t>
+  </si>
+  <si>
+    <t>Controller für MVC-Architektur wurde hinzugefügt.</t>
+  </si>
+  <si>
+    <t>Neue und vollständige Fehlerbehandlungsstrategie wurde eingesetzt.</t>
+  </si>
+  <si>
+    <t>Die Anwendung wurde nach MVC Architektur strukturiert.</t>
+  </si>
+  <si>
+    <t>Die Ausgabeverarbeitung wurde so implementiert, dass die Benutzer einfach auf dem Bildschirm die Ausgabe sehen können.</t>
+  </si>
+  <si>
+    <t>Fehlermeldungen wurden mit einem Fehlercode auf dem Bildschirm gezeigt und durch try...catch Blöcke eingesetzt.</t>
+  </si>
+  <si>
+    <t>Marian Claudiu-Ștefan</t>
+  </si>
+  <si>
+    <t>25.03.2024</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Die Verzweigung ist fehlerhaft.</t>
+  </si>
+  <si>
+    <t>Es gibt Fehler bei der Aufbereitung oder Verarbeitung von Eingabedaten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +146,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -127,17 +208,384 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,136 +921,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5AB3D6-24FF-4E29-B964-6DD0D8142A3C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="58.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="72.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="50.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="63.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="53.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="64.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="95.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="13">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="32.700000000000003" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="13">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="65.349999999999994" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="13">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="116.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="E15:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>